--- a/TTPs Detection by Windows Event Ids/Mapping_Res_to_MitreAttack.xlsx
+++ b/TTPs Detection by Windows Event Ids/Mapping_Res_to_MitreAttack.xlsx
@@ -1,82 +1,689 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shir\Desktop\MITRE ATT&amp;CK\MITRE-ATT-CK\TTPs Detection by Windows Event Ids\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A22087-C2AF-4797-B722-7FFC0A039BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Reconnaissance</t>
-  </si>
-  <si>
-    <t>Resource Development</t>
-  </si>
-  <si>
-    <t>Initial Access</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>Persistence</t>
-  </si>
-  <si>
-    <t>Privilege Escalation</t>
-  </si>
-  <si>
-    <t>Defense Evasion</t>
-  </si>
-  <si>
-    <t>Credential Access</t>
-  </si>
-  <si>
-    <t>Discovery</t>
-  </si>
-  <si>
-    <t>Lateral Movement</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Command and Control</t>
-  </si>
-  <si>
-    <t>Exfiltration</t>
-  </si>
-  <si>
-    <t>Impact</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="210">
+  <si>
+    <t>reconnaissance</t>
+  </si>
+  <si>
+    <t>Active Scanning</t>
+  </si>
+  <si>
+    <t>Gather Victim Host Information</t>
+  </si>
+  <si>
+    <t>Gather Victim Identity Information</t>
+  </si>
+  <si>
+    <t>Gather Victim Network Information</t>
+  </si>
+  <si>
+    <t>Gather Victim Org Information</t>
+  </si>
+  <si>
+    <t>Phishing for Information</t>
+  </si>
+  <si>
+    <t>Search Closed Sources</t>
+  </si>
+  <si>
+    <t>Search Open Technical Databases</t>
+  </si>
+  <si>
+    <t>Search Open Websites/Domains</t>
+  </si>
+  <si>
+    <t>Search Victim-Owned Websites</t>
+  </si>
+  <si>
+    <t>resource-development</t>
+  </si>
+  <si>
+    <t>Acquire Infrastructure</t>
+  </si>
+  <si>
+    <t>Compromise Accounts</t>
+  </si>
+  <si>
+    <t>Compromise Infrastructure</t>
+  </si>
+  <si>
+    <t>Develop Capabilities</t>
+  </si>
+  <si>
+    <t>Establish Accounts</t>
+  </si>
+  <si>
+    <t>Obtain Capabilities</t>
+  </si>
+  <si>
+    <t>Stage Capabilities</t>
+  </si>
+  <si>
+    <t>initial-access</t>
+  </si>
+  <si>
+    <t>Drive-by Compromise</t>
+  </si>
+  <si>
+    <t>Exploit Public-Facing Application</t>
+  </si>
+  <si>
+    <t>External Remote Services</t>
+  </si>
+  <si>
+    <t>Hardware Additions</t>
+  </si>
+  <si>
+    <t>Phishing</t>
+  </si>
+  <si>
+    <t>Replication Through Removable Media</t>
+  </si>
+  <si>
+    <t>Supply Chain Compromise</t>
+  </si>
+  <si>
+    <t>Trusted Relationship</t>
+  </si>
+  <si>
+    <t>Valid Accounts</t>
+  </si>
+  <si>
+    <t>execution</t>
+  </si>
+  <si>
+    <t>Command and Scripting Interpreter</t>
+  </si>
+  <si>
+    <t>Component Object Model and Distributed COM</t>
+  </si>
+  <si>
+    <t>Container Administration Command</t>
+  </si>
+  <si>
+    <t>Deploy Container</t>
+  </si>
+  <si>
+    <t>Exploitation for Client Execution</t>
+  </si>
+  <si>
+    <t>Graphical User Interface</t>
+  </si>
+  <si>
+    <t>Inter-Process Communication</t>
+  </si>
+  <si>
+    <t>Native API</t>
+  </si>
+  <si>
+    <t>Scheduled Task/Job</t>
+  </si>
+  <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>Shared Modules</t>
+  </si>
+  <si>
+    <t>Software Deployment Tools</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>System Services</t>
+  </si>
+  <si>
+    <t>User Execution</t>
+  </si>
+  <si>
+    <t>Windows Management Instrumentation</t>
+  </si>
+  <si>
+    <t>persistence</t>
+  </si>
+  <si>
+    <t>Account Manipulation</t>
+  </si>
+  <si>
+    <t>BITS Jobs</t>
+  </si>
+  <si>
+    <t>Boot or Logon Autostart Execution</t>
+  </si>
+  <si>
+    <t>Boot or Logon Initialization Scripts</t>
+  </si>
+  <si>
+    <t>Browser Extensions</t>
+  </si>
+  <si>
+    <t>Compromise Client Software Binary</t>
+  </si>
+  <si>
+    <t>Create Account</t>
+  </si>
+  <si>
+    <t>Create or Modify System Process</t>
+  </si>
+  <si>
+    <t>Event Triggered Execution</t>
+  </si>
+  <si>
+    <t>Hijack Execution Flow</t>
+  </si>
+  <si>
+    <t>Hypervisor</t>
+  </si>
+  <si>
+    <t>Implant Internal Image</t>
+  </si>
+  <si>
+    <t>Modify Authentication Process</t>
+  </si>
+  <si>
+    <t>Office Application Startup</t>
+  </si>
+  <si>
+    <t>Path Interception</t>
+  </si>
+  <si>
+    <t>Pre-OS Boot</t>
+  </si>
+  <si>
+    <t>Redundant Access</t>
+  </si>
+  <si>
+    <t>Server Software Component</t>
+  </si>
+  <si>
+    <t>Traffic Signaling</t>
+  </si>
+  <si>
+    <t>privilege-escalation</t>
+  </si>
+  <si>
+    <t>Abuse Elevation Control Mechanism</t>
+  </si>
+  <si>
+    <t>Access Token Manipulation</t>
+  </si>
+  <si>
+    <t>Domain Policy Modification</t>
+  </si>
+  <si>
+    <t>Escape to Host</t>
+  </si>
+  <si>
+    <t>Exploitation for Privilege Escalation</t>
+  </si>
+  <si>
+    <t>Process Injection</t>
+  </si>
+  <si>
+    <t>defense-evasion</t>
+  </si>
+  <si>
+    <t>Build Image on Host</t>
+  </si>
+  <si>
+    <t>Deobfuscate/Decode Files or Information</t>
+  </si>
+  <si>
+    <t>Direct Volume Access</t>
+  </si>
+  <si>
+    <t>Execution Guardrails</t>
+  </si>
+  <si>
+    <t>Exploitation for Defense Evasion</t>
+  </si>
+  <si>
+    <t>File and Directory Permissions Modification</t>
+  </si>
+  <si>
+    <t>Hide Artifacts</t>
+  </si>
+  <si>
+    <t>Impair Defenses</t>
+  </si>
+  <si>
+    <t>Indicator Removal on Host</t>
+  </si>
+  <si>
+    <t>Indirect Command Execution</t>
+  </si>
+  <si>
+    <t>LC_MAIN Hijacking</t>
+  </si>
+  <si>
+    <t>Masquerading</t>
+  </si>
+  <si>
+    <t>Modify Cloud Compute Infrastructure</t>
+  </si>
+  <si>
+    <t>Modify Registry</t>
+  </si>
+  <si>
+    <t>Modify System Image</t>
+  </si>
+  <si>
+    <t>Network Boundary Bridging</t>
+  </si>
+  <si>
+    <t>Obfuscated Files or Information</t>
+  </si>
+  <si>
+    <t>Rogue Domain Controller</t>
+  </si>
+  <si>
+    <t>Rootkit</t>
+  </si>
+  <si>
+    <t>Signed Binary Proxy Execution</t>
+  </si>
+  <si>
+    <t>Signed Script Proxy Execution</t>
+  </si>
+  <si>
+    <t>Subvert Trust Controls</t>
+  </si>
+  <si>
+    <t>Template Injection</t>
+  </si>
+  <si>
+    <t>Trusted Developer Utilities Proxy Execution</t>
+  </si>
+  <si>
+    <t>Unused/Unsupported Cloud Regions</t>
+  </si>
+  <si>
+    <t>Use Alternate Authentication Material</t>
+  </si>
+  <si>
+    <t>Virtualization/Sandbox Evasion</t>
+  </si>
+  <si>
+    <t>Weaken Encryption</t>
+  </si>
+  <si>
+    <t>XSL Script Processing</t>
+  </si>
+  <si>
+    <t>credential-access</t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Credentials from Password Stores</t>
+  </si>
+  <si>
+    <t>Exploitation for Credential Access</t>
+  </si>
+  <si>
+    <t>Forced Authentication</t>
+  </si>
+  <si>
+    <t>Forge Web Credentials</t>
+  </si>
+  <si>
+    <t>Input Capture</t>
+  </si>
+  <si>
+    <t>Man-in-the-Middle</t>
+  </si>
+  <si>
+    <t>Network Sniffing</t>
+  </si>
+  <si>
+    <t>OS Credential Dumping</t>
+  </si>
+  <si>
+    <t>Steal Application Access Token</t>
+  </si>
+  <si>
+    <t>Steal Web Session Cookie</t>
+  </si>
+  <si>
+    <t>Steal or Forge Kerberos Tickets</t>
+  </si>
+  <si>
+    <t>Two-Factor Authentication Interception</t>
+  </si>
+  <si>
+    <t>Unsecured Credentials</t>
+  </si>
+  <si>
+    <t>discovery</t>
+  </si>
+  <si>
+    <t>Account Discovery</t>
+  </si>
+  <si>
+    <t>Application Window Discovery</t>
+  </si>
+  <si>
+    <t>Browser Bookmark Discovery</t>
+  </si>
+  <si>
+    <t>Cloud Infrastructure Discovery</t>
+  </si>
+  <si>
+    <t>Cloud Service Dashboard</t>
+  </si>
+  <si>
+    <t>Cloud Service Discovery</t>
+  </si>
+  <si>
+    <t>Container and Resource Discovery</t>
+  </si>
+  <si>
+    <t>Domain Trust Discovery</t>
+  </si>
+  <si>
+    <t>File and Directory Discovery</t>
+  </si>
+  <si>
+    <t>Network Service Scanning</t>
+  </si>
+  <si>
+    <t>Network Share Discovery</t>
+  </si>
+  <si>
+    <t>Password Policy Discovery</t>
+  </si>
+  <si>
+    <t>Peripheral Device Discovery</t>
+  </si>
+  <si>
+    <t>Permission Groups Discovery</t>
+  </si>
+  <si>
+    <t>Process Discovery</t>
+  </si>
+  <si>
+    <t>Query Registry</t>
+  </si>
+  <si>
+    <t>Remote System Discovery</t>
+  </si>
+  <si>
+    <t>Software Discovery</t>
+  </si>
+  <si>
+    <t>System Information Discovery</t>
+  </si>
+  <si>
+    <t>System Location Discovery</t>
+  </si>
+  <si>
+    <t>System Network Configuration Discovery</t>
+  </si>
+  <si>
+    <t>System Network Connections Discovery</t>
+  </si>
+  <si>
+    <t>System Owner/User Discovery</t>
+  </si>
+  <si>
+    <t>System Service Discovery</t>
+  </si>
+  <si>
+    <t>System Time Discovery</t>
+  </si>
+  <si>
+    <t>lateral-movement</t>
+  </si>
+  <si>
+    <t>Exploitation of Remote Services</t>
+  </si>
+  <si>
+    <t>Internal Spearphishing</t>
+  </si>
+  <si>
+    <t>Lateral Tool Transfer</t>
+  </si>
+  <si>
+    <t>Remote Service Session Hijacking</t>
+  </si>
+  <si>
+    <t>Remote Services</t>
+  </si>
+  <si>
+    <t>Shared Webroot</t>
+  </si>
+  <si>
+    <t>Taint Shared Content</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t>Archive Collected Data</t>
+  </si>
+  <si>
+    <t>Audio Capture</t>
+  </si>
+  <si>
+    <t>Automated Collection</t>
+  </si>
+  <si>
+    <t>Clipboard Data</t>
+  </si>
+  <si>
+    <t>Data Staged</t>
+  </si>
+  <si>
+    <t>Data from Cloud Storage Object</t>
+  </si>
+  <si>
+    <t>Data from Configuration Repository</t>
+  </si>
+  <si>
+    <t>Data from Information Repositories</t>
+  </si>
+  <si>
+    <t>Data from Local System</t>
+  </si>
+  <si>
+    <t>Data from Network Shared Drive</t>
+  </si>
+  <si>
+    <t>Data from Removable Media</t>
+  </si>
+  <si>
+    <t>Email Collection</t>
+  </si>
+  <si>
+    <t>Man in the Browser</t>
+  </si>
+  <si>
+    <t>Screen Capture</t>
+  </si>
+  <si>
+    <t>Video Capture</t>
+  </si>
+  <si>
+    <t>command-and-control</t>
+  </si>
+  <si>
+    <t>Application Layer Protocol</t>
+  </si>
+  <si>
+    <t>Commonly Used Port</t>
+  </si>
+  <si>
+    <t>Communication Through Removable Media</t>
+  </si>
+  <si>
+    <t>Data Encoding</t>
+  </si>
+  <si>
+    <t>Data Obfuscation</t>
+  </si>
+  <si>
+    <t>Dynamic Resolution</t>
+  </si>
+  <si>
+    <t>Encrypted Channel</t>
+  </si>
+  <si>
+    <t>Fallback Channels</t>
+  </si>
+  <si>
+    <t>Ingress Tool Transfer</t>
+  </si>
+  <si>
+    <t>Multi-Stage Channels</t>
+  </si>
+  <si>
+    <t>Multiband Communication</t>
+  </si>
+  <si>
+    <t>Non-Application Layer Protocol</t>
+  </si>
+  <si>
+    <t>Non-Standard Port</t>
+  </si>
+  <si>
+    <t>Protocol Tunneling</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Remote Access Software</t>
+  </si>
+  <si>
+    <t>Web Service</t>
+  </si>
+  <si>
+    <t>exfiltration</t>
+  </si>
+  <si>
+    <t>Automated Exfiltration</t>
+  </si>
+  <si>
+    <t>Data Transfer Size Limits</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Alternative Protocol</t>
+  </si>
+  <si>
+    <t>Exfiltration Over C2 Channel</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Other Network Medium</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Physical Medium</t>
+  </si>
+  <si>
+    <t>Exfiltration Over Web Service</t>
+  </si>
+  <si>
+    <t>Scheduled Transfer</t>
+  </si>
+  <si>
+    <t>Transfer Data to Cloud Account</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>Account Access Removal</t>
+  </si>
+  <si>
+    <t>Data Destruction</t>
+  </si>
+  <si>
+    <t>Data Encrypted for Impact</t>
+  </si>
+  <si>
+    <t>Data Manipulation</t>
+  </si>
+  <si>
+    <t>Defacement</t>
+  </si>
+  <si>
+    <t>Disk Wipe</t>
+  </si>
+  <si>
+    <t>Endpoint Denial of Service</t>
+  </si>
+  <si>
+    <t>Firmware Corruption</t>
+  </si>
+  <si>
+    <t>Inhibit System Recovery</t>
+  </si>
+  <si>
+    <t>Network Denial of Service</t>
+  </si>
+  <si>
+    <t>Resource Hijacking</t>
+  </si>
+  <si>
+    <t>Service Stop</t>
+  </si>
+  <si>
+    <t>System Shutdown/Reboot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,19 +698,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -145,7 +761,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -177,9 +793,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -211,6 +845,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,55 +1038,847 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L4" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>156</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="N5" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>123</v>
+      </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="N6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" t="s">
+        <v>192</v>
+      </c>
+      <c r="N7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" t="s">
+        <v>193</v>
+      </c>
+      <c r="N8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="M10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L11" t="s">
+        <v>178</v>
+      </c>
+      <c r="N11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>181</v>
+      </c>
+      <c r="N14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="E23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
